--- a/The_Worst_Cardgame/sets/beta_carddata.xlsx
+++ b/The_Worst_Cardgame/sets/beta_carddata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\LackeyCCG\LackeyCCG\plugins\The Worst Card Game\sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\LackeyCCG\LackeyCCG\plugins\The_Worst_Cardgame\sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D980CFF2-FB86-4649-A50A-73FFDA409AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E68D2A-DCC3-4812-B706-9FB1916F4DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Gary Honse</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>beta_GaryHonse.jpg,</t>
+  </si>
+  <si>
+    <t>BET001</t>
   </si>
 </sst>
 </file>
@@ -564,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,6 +637,20 @@
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64" s="16"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
